--- a/data/2017-2018_NSLP-CE-addressesv3.xlsx
+++ b/data/2017-2018_NSLP-CE-addressesv3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rperez\Documents\R\R Saves\Projects\nslp-locations\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB9E4A93-A1B2-446D-9377-014530FCBC8D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD48D24B-D8BD-4B3D-BF10-AA9B05C4F139}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4E12DC45-65E2-4ABE-9015-B689DEB853BC}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4E12DC45-65E2-4ABE-9015-B689DEB853BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3489,9 +3489,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2065EDB3-8576-4796-A649-FB0BBACFC861}">
   <dimension ref="A1:F340"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A301" workbookViewId="0">
-      <selection activeCell="G343" sqref="G343"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
